--- a/OAUG/2019 Pandas vs SQL/Data/Oracle Employee Data.xlsx
+++ b/OAUG/2019 Pandas vs SQL/Data/Oracle Employee Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
   <dxfs count="27">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -361,16 +361,20 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -394,7 +398,9 @@
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
@@ -423,6 +429,29 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -435,8 +464,41 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -457,6 +519,72 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color rgb="FF000000"/>
@@ -480,13 +608,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -496,6 +617,13 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -613,6 +741,177 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color rgb="FF000000"/>
@@ -636,13 +935,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -652,6 +944,31 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -683,323 +1000,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1016,41 +1016,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H15" totalsRowShown="0" headerRowDxfId="14" dataDxfId="15" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H15" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:H15"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="empno" dataDxfId="23"/>
-    <tableColumn id="2" name="ename" dataDxfId="22"/>
-    <tableColumn id="3" name="job" dataDxfId="21"/>
-    <tableColumn id="4" name="mgr" dataDxfId="20"/>
-    <tableColumn id="5" name="hiredate" dataDxfId="19"/>
-    <tableColumn id="6" name="sal" dataDxfId="18"/>
-    <tableColumn id="7" name="comm" dataDxfId="17"/>
-    <tableColumn id="8" name="deptno" dataDxfId="16"/>
+    <tableColumn id="1" name="empno" dataDxfId="21"/>
+    <tableColumn id="2" name="ename" dataDxfId="20"/>
+    <tableColumn id="3" name="job" dataDxfId="19"/>
+    <tableColumn id="4" name="mgr" dataDxfId="18"/>
+    <tableColumn id="5" name="hiredate" dataDxfId="17"/>
+    <tableColumn id="6" name="sal" dataDxfId="16"/>
+    <tableColumn id="7" name="comm" dataDxfId="15"/>
+    <tableColumn id="8" name="deptno" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C7" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A3:C7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:C5"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="deptno" dataDxfId="10"/>
-    <tableColumn id="2" name="dname" dataDxfId="9"/>
-    <tableColumn id="3" name="location" dataDxfId="8"/>
+    <tableColumn id="1" name="deptno" dataDxfId="9"/>
+    <tableColumn id="2" name="dname" dataDxfId="8"/>
+    <tableColumn id="3" name="location" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A3:C8" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A3:C8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C6" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="grade" dataDxfId="3"/>
-    <tableColumn id="2" name="losal" dataDxfId="2"/>
-    <tableColumn id="3" name="hisal" dataDxfId="1"/>
+    <tableColumn id="1" name="grade" dataDxfId="2"/>
+    <tableColumn id="2" name="losal" dataDxfId="1"/>
+    <tableColumn id="3" name="hisal" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1321,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1719,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,58 +1732,58 @@
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>40</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1797,77 +1797,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>700</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1200</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>39</v>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1201</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1400</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>700</v>
+        <v>2001</v>
       </c>
       <c r="C4" s="4">
-        <v>1200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>1201</v>
+        <v>3001</v>
       </c>
       <c r="C5" s="4">
-        <v>1400</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2001</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3001</v>
-      </c>
-      <c r="C7" s="4">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B6" s="9">
         <v>1401</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C6" s="11">
         <v>2000</v>
       </c>
     </row>
